--- a/CAJA MENOR/CAJA INQUIORT/CAJA.xlsx
+++ b/CAJA MENOR/CAJA INQUIORT/CAJA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CAJA MENOR\CAJA INQUIORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F976C69-8563-41E3-B5A4-F63548614C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="10" xr2:uid="{BDC02551-F41D-4047-947C-2613BC573A5E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1-19 SEPTIEMBRE" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'15 JUNIO'!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -498,10 +497,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -799,7 +798,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,7 +834,7 @@
     </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1173,32 +1172,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA55B08-F784-4571-83F3-0D40E4AA1767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="82.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
+    <col min="3" max="3" width="82.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="7"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
@@ -1208,7 +1207,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="15">
         <v>1</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>2</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>44.69</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>3</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>4</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>6</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>7</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>8</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -1352,7 +1351,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>10</v>
       </c>
@@ -1370,7 +1369,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>11</v>
       </c>
@@ -1388,7 +1387,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>12</v>
       </c>
@@ -1406,7 +1405,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
         <v>13</v>
       </c>
@@ -1424,7 +1423,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <v>14</v>
       </c>
@@ -1442,7 +1441,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="10">
         <v>15</v>
       </c>
@@ -1460,7 +1459,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="22"/>
@@ -1470,7 +1469,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="22"/>
@@ -1480,25 +1479,25 @@
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="22"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="22"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1507,7 +1506,7 @@
         <v>441.21000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D28" s="3"/>
     </row>
   </sheetData>
@@ -1517,34 +1516,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50F4841-15BA-42A2-9B56-5A6FCAE4AB84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="93.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="93.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="64" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="41"/>
       <c r="C4" s="23" t="s">
@@ -1554,7 +1553,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1569,7 @@
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
     </row>
-    <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -1586,7 +1585,7 @@
       <c r="E6" s="66"/>
       <c r="F6" s="63"/>
     </row>
-    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -1602,7 +1601,7 @@
       <c r="E7" s="66"/>
       <c r="F7" s="67"/>
     </row>
-    <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>3</v>
       </c>
@@ -1618,7 +1617,7 @@
       <c r="E8" s="66"/>
       <c r="F8" s="68"/>
     </row>
-    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>4</v>
       </c>
@@ -1634,7 +1633,7 @@
       <c r="E9" s="66"/>
       <c r="F9" s="68"/>
     </row>
-    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>5</v>
       </c>
@@ -1650,7 +1649,7 @@
       <c r="E10" s="66"/>
       <c r="F10" s="68"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="38"/>
       <c r="B11" s="54"/>
       <c r="C11" s="58"/>
@@ -1658,7 +1657,7 @@
       <c r="E11" s="66"/>
       <c r="F11" s="69"/>
     </row>
-    <row r="12" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="30"/>
       <c r="B12" s="37"/>
       <c r="C12" s="72" t="s">
@@ -1669,7 +1668,7 @@
         <v>469.27000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D13" s="62"/>
     </row>
   </sheetData>
@@ -1680,34 +1679,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E21273-E894-4FC0-A519-882AD14E83FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="93.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="93.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="64">
         <v>45240</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="41"/>
       <c r="C4" s="23" t="s">
@@ -1717,7 +1716,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>44.69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>269.39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>3</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>4</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>44.69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>5</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>44.69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A11" s="30"/>
       <c r="B11" s="37"/>
       <c r="C11" s="53" t="s">
@@ -1812,7 +1811,7 @@
         <v>470.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D12" s="62">
         <f>D4-D11</f>
         <v>29.5</v>
@@ -1825,32 +1824,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D0ED3A-7778-418B-B0B2-06BBC585BABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="3" max="3" width="107" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="7"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="24" t="s">
         <v>43</v>
@@ -1862,7 +1861,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="30">
         <v>1</v>
       </c>
@@ -1890,7 +1889,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="30">
         <v>2</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="30">
         <v>3</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>111.73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="30">
         <v>4</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="30">
         <v>5</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="30">
         <v>6</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="30">
         <v>7</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="30">
         <v>8</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="30">
         <v>9</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="30">
         <v>10</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="30">
         <v>11</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="30">
         <v>12</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="30">
         <v>13</v>
       </c>
@@ -2058,7 +2057,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="30">
         <v>14</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>45.92</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="30">
         <v>15</v>
       </c>
@@ -2086,7 +2085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="30">
         <v>16</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="30">
         <v>17</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="30">
         <v>18</v>
       </c>
@@ -2128,7 +2127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="30">
         <v>19</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="30">
         <v>20</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="35">
         <v>21</v>
       </c>
@@ -2174,7 +2173,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="35">
         <v>22</v>
       </c>
@@ -2192,7 +2191,7 @@
       <c r="G27" s="19"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="35">
         <v>23</v>
       </c>
@@ -2210,7 +2209,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="35">
         <v>24</v>
       </c>
@@ -2228,7 +2227,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="35">
         <v>25</v>
       </c>
@@ -2246,7 +2245,7 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="35">
         <v>26</v>
       </c>
@@ -2264,7 +2263,7 @@
       <c r="G31" s="19"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="35">
         <v>27</v>
       </c>
@@ -2282,7 +2281,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="30">
         <v>28</v>
       </c>
@@ -2300,7 +2299,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A34" s="30"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -2309,7 +2308,7 @@
         <v>490.8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D36" s="3"/>
     </row>
   </sheetData>
@@ -2319,32 +2318,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18179CDE-7E4B-463B-A33D-F9A6E90466EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H48"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="3" max="3" width="107" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="7"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="41">
         <v>44853</v>
@@ -2356,7 +2355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -2398,7 +2397,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>3</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>4</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>6</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>7</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>8</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>9</v>
       </c>
@@ -2496,7 +2495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>11</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>12</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>33.94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>13</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>14</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>15</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>16</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>17</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>18</v>
       </c>
@@ -2622,7 +2621,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>19</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>20</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>21</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>22</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>23</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>24</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>25</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>26</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>27</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>28</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>29</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>30</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>45.92</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>31</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <v>32</v>
       </c>
@@ -2818,7 +2817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="47">
         <v>33</v>
       </c>
@@ -2836,7 +2835,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="47">
         <v>34</v>
       </c>
@@ -2854,7 +2853,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="47">
         <v>35</v>
       </c>
@@ -2866,7 +2865,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="35"/>
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
@@ -2876,7 +2875,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="35"/>
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
@@ -2886,7 +2885,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="35"/>
       <c r="B43" s="27"/>
       <c r="C43" s="28"/>
@@ -2896,7 +2895,7 @@
       <c r="G43" s="19"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="35"/>
       <c r="B44" s="27"/>
       <c r="C44" s="28"/>
@@ -2906,7 +2905,7 @@
       <c r="G44" s="19"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="30"/>
       <c r="B45" s="27"/>
       <c r="C45" s="28"/>
@@ -2916,7 +2915,7 @@
       <c r="G45" s="19"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A46" s="30"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
@@ -2925,7 +2924,7 @@
         <v>486.66</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D48" s="3"/>
     </row>
   </sheetData>
@@ -2935,32 +2934,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17355E30-DBF9-4953-8F42-D50021A7FAEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="3" max="3" width="107" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="7"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="41">
         <v>44906</v>
@@ -2972,7 +2971,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>68.88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>3</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>4</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>111.73</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>6</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>45.92</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>7</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>8</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>9</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A16" s="30"/>
       <c r="B16" s="37"/>
       <c r="C16" s="53" t="s">
@@ -3137,7 +3136,7 @@
         <v>473.15000000000009</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="3"/>
     </row>
   </sheetData>
@@ -3147,32 +3146,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38ECB766-A187-4459-BDF8-5761BCC3034A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="3" max="3" width="107" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="7"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="41">
         <v>44930</v>
@@ -3184,7 +3183,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -3198,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>3</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>112.96</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>4</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>111.73</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>6</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>7</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>8</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>9</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>111.73</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -3332,7 +3331,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="57"/>
     </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>11</v>
       </c>
@@ -3340,7 +3339,7 @@
       <c r="C16" s="58"/>
       <c r="D16" s="57"/>
     </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A17" s="30"/>
       <c r="B17" s="37"/>
       <c r="C17" s="53" t="s">
@@ -3351,13 +3350,13 @@
         <v>495.50000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D19" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C23" s="61"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C24" s="61"/>
     </row>
   </sheetData>
@@ -3367,34 +3366,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCC9BB2-9209-4D40-8E25-04E6CCB9A719}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="93.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="93.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="41"/>
       <c r="C4" s="23" t="s">
@@ -3404,7 +3403,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>45.92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>3</v>
       </c>
@@ -3460,7 +3459,7 @@
         <v>45.92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>4</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>6</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>44.69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>7</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>8</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>9</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>68.88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>11</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>12</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>31.14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>13</v>
       </c>
@@ -3600,7 +3599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>14</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>23.54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>15</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>16</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A22" s="30"/>
       <c r="B22" s="37"/>
       <c r="C22" s="53" t="s">
@@ -3660,34 +3659,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FC2F5E-A384-4C9F-A8FF-405907B671B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="93.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="93.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="41"/>
       <c r="C4" s="23" t="s">
@@ -3697,7 +3696,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -3711,7 +3710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -3725,7 +3724,7 @@
         <v>135.91999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>3</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>87.54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>4</v>
       </c>
@@ -3767,7 +3766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>5</v>
       </c>
@@ -3781,7 +3780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="38">
         <v>6</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>112.96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A12" s="30"/>
       <c r="B12" s="37"/>
       <c r="C12" s="53" t="s">
@@ -3813,34 +3812,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB635FC-0ACA-47E9-948A-33EB05B2CD67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="93.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="93.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="41"/>
       <c r="C4" s="23" t="s">
@@ -3850,7 +3849,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -3879,7 +3878,7 @@
       </c>
       <c r="F6" s="63"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>3</v>
       </c>
@@ -3907,7 +3906,7 @@
         <v>112.96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>4</v>
       </c>
@@ -3921,19 +3920,19 @@
         <v>90.61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
       <c r="B10" s="54"/>
       <c r="C10" s="55"/>
       <c r="D10" s="57"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="38"/>
       <c r="B11" s="54"/>
       <c r="C11" s="58"/>
       <c r="D11" s="57"/>
     </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A12" s="30"/>
       <c r="B12" s="37"/>
       <c r="C12" s="53" t="s">
@@ -3944,7 +3943,7 @@
         <v>494.08</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D13" s="62">
         <f>D4-D12</f>
         <v>5.9200000000000159</v>
@@ -3957,34 +3956,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E78D5C9-1E1B-4E4E-9AC0-17CB2B26E04A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="93.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="93.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C3" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="41"/>
       <c r="C4" s="23" t="s">
@@ -3994,7 +3993,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -4023,7 +4022,7 @@
       </c>
       <c r="F6" s="59"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -4037,7 +4036,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="54">
         <v>45162</v>
@@ -4049,7 +4048,7 @@
         <v>112.96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>4</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>45.92</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>5</v>
       </c>
@@ -4077,7 +4076,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A11" s="30"/>
       <c r="B11" s="37"/>
       <c r="C11" s="53" t="s">
@@ -4088,7 +4087,7 @@
         <v>404.69000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D12" s="62">
         <f>D4-D11</f>
         <v>95.309999999999945</v>
